--- a/report/summary_NIKKEI_M5_2020-2023_1.xlsx
+++ b/report/summary_NIKKEI_M5_2020-2023_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,6 +516,147 @@
         <v>0.2992673162625576</v>
       </c>
     </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>2.3</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3">
+        <v>450</v>
+      </c>
+      <c r="J3">
+        <v>150</v>
+      </c>
+      <c r="K3">
+        <v>42039</v>
+      </c>
+      <c r="L3">
+        <v>11730</v>
+      </c>
+      <c r="M3">
+        <v>-756</v>
+      </c>
+      <c r="N3">
+        <v>41283</v>
+      </c>
+      <c r="O3">
+        <v>0.3343563512361467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>40590</v>
+      </c>
+      <c r="L4">
+        <v>30981</v>
+      </c>
+      <c r="M4">
+        <v>-1062</v>
+      </c>
+      <c r="N4">
+        <v>39528</v>
+      </c>
+      <c r="O4">
+        <v>0.2703592524450469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>3.5</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>250</v>
+      </c>
+      <c r="K5">
+        <v>-23303</v>
+      </c>
+      <c r="L5">
+        <v>6740</v>
+      </c>
+      <c r="M5">
+        <v>-800</v>
+      </c>
+      <c r="N5">
+        <v>-24103</v>
+      </c>
+      <c r="O5">
+        <v>0.2514836795252225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/summary_NIKKEI_M5_2020-2023_1.xlsx
+++ b/report/summary_NIKKEI_M5_2020-2023_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,39 +486,39 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>0.9000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H2">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K2">
-        <v>64324</v>
+        <v>71877</v>
       </c>
       <c r="L2">
-        <v>13239</v>
+        <v>18234</v>
       </c>
       <c r="M2">
-        <v>-994</v>
+        <v>-703</v>
       </c>
       <c r="N2">
-        <v>63330</v>
+        <v>71174</v>
       </c>
       <c r="O2">
-        <v>0.2992673162625576</v>
+        <v>0.3194581550948777</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -533,39 +533,39 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="I3">
         <v>450</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K3">
-        <v>42039</v>
+        <v>64324</v>
       </c>
       <c r="L3">
-        <v>11730</v>
+        <v>13239</v>
       </c>
       <c r="M3">
-        <v>-756</v>
+        <v>-994</v>
       </c>
       <c r="N3">
-        <v>41283</v>
+        <v>63330</v>
       </c>
       <c r="O3">
-        <v>0.3343563512361467</v>
+        <v>0.2992673162625576</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,39 +580,39 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H4">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I4">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K4">
-        <v>40590</v>
+        <v>58158</v>
       </c>
       <c r="L4">
-        <v>30981</v>
+        <v>7663</v>
       </c>
       <c r="M4">
-        <v>-1062</v>
+        <v>-798</v>
       </c>
       <c r="N4">
-        <v>39528</v>
+        <v>57360</v>
       </c>
       <c r="O4">
-        <v>0.2703592524450469</v>
+        <v>0.3353777893775284</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -627,33 +627,221 @@
         <v>2023</v>
       </c>
       <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>2.3</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>450</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+      <c r="K5">
+        <v>42039</v>
+      </c>
+      <c r="L5">
+        <v>11730</v>
+      </c>
+      <c r="M5">
+        <v>-756</v>
+      </c>
+      <c r="N5">
+        <v>41283</v>
+      </c>
+      <c r="O5">
+        <v>0.3343563512361467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="G6">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+      <c r="K6">
+        <v>40499</v>
+      </c>
+      <c r="L6">
+        <v>10211</v>
+      </c>
+      <c r="M6">
+        <v>-756</v>
+      </c>
+      <c r="N6">
+        <v>39743</v>
+      </c>
+      <c r="O6">
+        <v>0.3458035451963569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>150</v>
+      </c>
+      <c r="K7">
+        <v>40590</v>
+      </c>
+      <c r="L7">
+        <v>30981</v>
+      </c>
+      <c r="M7">
+        <v>-1062</v>
+      </c>
+      <c r="N7">
+        <v>39528</v>
+      </c>
+      <c r="O7">
+        <v>0.2703592524450469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2.7</v>
+      </c>
+      <c r="H8">
+        <v>450</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>3689</v>
+      </c>
+      <c r="L8">
+        <v>10386</v>
+      </c>
+      <c r="M8">
+        <v>-589</v>
+      </c>
+      <c r="N8">
+        <v>3100</v>
+      </c>
+      <c r="O8">
+        <v>0.3755054881571346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
         <v>3.5</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="I9">
         <v>500</v>
       </c>
-      <c r="J5">
+      <c r="J9">
         <v>250</v>
       </c>
-      <c r="K5">
+      <c r="K9">
         <v>-23303</v>
       </c>
-      <c r="L5">
+      <c r="L9">
         <v>6740</v>
       </c>
-      <c r="M5">
+      <c r="M9">
         <v>-800</v>
       </c>
-      <c r="N5">
+      <c r="N9">
         <v>-24103</v>
       </c>
-      <c r="O5">
+      <c r="O9">
         <v>0.2514836795252225</v>
       </c>
     </row>

--- a/report/summary_NIKKEI_M5_2020-2023_1.xlsx
+++ b/report/summary_NIKKEI_M5_2020-2023_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -533,39 +533,39 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0.9000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H3">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="I3">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K3">
-        <v>64324</v>
+        <v>67509</v>
       </c>
       <c r="L3">
-        <v>13239</v>
+        <v>19927</v>
       </c>
       <c r="M3">
-        <v>-994</v>
+        <v>-703</v>
       </c>
       <c r="N3">
-        <v>63330</v>
+        <v>66806</v>
       </c>
       <c r="O3">
-        <v>0.2992673162625576</v>
+        <v>0.3144477342299393</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,39 +580,39 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>2.7</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H4">
         <v>450</v>
       </c>
       <c r="I4">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J4">
         <v>250</v>
       </c>
       <c r="K4">
-        <v>58158</v>
+        <v>64324</v>
       </c>
       <c r="L4">
-        <v>7663</v>
+        <v>13239</v>
       </c>
       <c r="M4">
-        <v>-798</v>
+        <v>-994</v>
       </c>
       <c r="N4">
-        <v>57360</v>
+        <v>63330</v>
       </c>
       <c r="O4">
-        <v>0.3353777893775284</v>
+        <v>0.2992673162625576</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -627,39 +627,39 @@
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H5">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="I5">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K5">
-        <v>42039</v>
+        <v>58158</v>
       </c>
       <c r="L5">
-        <v>11730</v>
+        <v>7663</v>
       </c>
       <c r="M5">
-        <v>-756</v>
+        <v>-798</v>
       </c>
       <c r="N5">
-        <v>41283</v>
+        <v>57360</v>
       </c>
       <c r="O5">
-        <v>0.3343563512361467</v>
+        <v>0.3353777893775284</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -674,39 +674,39 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>2.600000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H6">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J6">
         <v>150</v>
       </c>
       <c r="K6">
-        <v>40499</v>
+        <v>42039</v>
       </c>
       <c r="L6">
-        <v>10211</v>
+        <v>11730</v>
       </c>
       <c r="M6">
         <v>-756</v>
       </c>
       <c r="N6">
-        <v>39743</v>
+        <v>41283</v>
       </c>
       <c r="O6">
-        <v>0.3458035451963569</v>
+        <v>0.3343563512361467</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -721,39 +721,39 @@
         <v>2023</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H7">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I7">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J7">
         <v>150</v>
       </c>
       <c r="K7">
-        <v>40590</v>
+        <v>40499</v>
       </c>
       <c r="L7">
-        <v>30981</v>
+        <v>10211</v>
       </c>
       <c r="M7">
-        <v>-1062</v>
+        <v>-756</v>
       </c>
       <c r="N7">
-        <v>39528</v>
+        <v>39743</v>
       </c>
       <c r="O7">
-        <v>0.2703592524450469</v>
+        <v>0.3458035451963569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -768,81 +768,363 @@
         <v>2023</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H8">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="I8">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K8">
-        <v>3689</v>
+        <v>40590</v>
       </c>
       <c r="L8">
-        <v>10386</v>
+        <v>30981</v>
       </c>
       <c r="M8">
-        <v>-589</v>
+        <v>-1062</v>
       </c>
       <c r="N8">
-        <v>3100</v>
+        <v>39528</v>
       </c>
       <c r="O8">
-        <v>0.3755054881571346</v>
+        <v>0.2703592524450469</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>2.7</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>400</v>
+      </c>
+      <c r="J9">
+        <v>150</v>
+      </c>
+      <c r="K9">
+        <v>33093</v>
+      </c>
+      <c r="L9">
+        <v>9747</v>
+      </c>
+      <c r="M9">
+        <v>-756</v>
+      </c>
+      <c r="N9">
+        <v>32337</v>
+      </c>
+      <c r="O9">
+        <v>0.3424643480045142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>1.7</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>150</v>
+      </c>
+      <c r="K10">
+        <v>19657</v>
+      </c>
+      <c r="L10">
+        <v>15732</v>
+      </c>
+      <c r="M10">
+        <v>-756</v>
+      </c>
+      <c r="N10">
+        <v>18901</v>
+      </c>
+      <c r="O10">
+        <v>0.3226544622425629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>1.8</v>
+      </c>
+      <c r="H11">
+        <v>150</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+      <c r="J11">
+        <v>250</v>
+      </c>
+      <c r="K11">
+        <v>8022</v>
+      </c>
+      <c r="L11">
+        <v>11076</v>
+      </c>
+      <c r="M11">
+        <v>-889</v>
+      </c>
+      <c r="N11">
+        <v>7133</v>
+      </c>
+      <c r="O11">
+        <v>0.2902672444925966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2.7</v>
+      </c>
+      <c r="H12">
+        <v>450</v>
+      </c>
+      <c r="I12">
+        <v>500</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>3689</v>
+      </c>
+      <c r="L12">
+        <v>10386</v>
+      </c>
+      <c r="M12">
+        <v>-589</v>
+      </c>
+      <c r="N12">
+        <v>3100</v>
+      </c>
+      <c r="O12">
+        <v>0.3755054881571346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>2.3</v>
+      </c>
+      <c r="H13">
+        <v>250</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3001</v>
+      </c>
+      <c r="L13">
+        <v>12888</v>
+      </c>
+      <c r="M13">
+        <v>-756</v>
+      </c>
+      <c r="N13">
+        <v>2245</v>
+      </c>
+      <c r="O13">
+        <v>0.3706548727498448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>2020</v>
-      </c>
-      <c r="E9">
-        <v>2023</v>
-      </c>
-      <c r="F9">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="G14">
         <v>3.5</v>
       </c>
-      <c r="H9">
+      <c r="H14">
         <v>100</v>
       </c>
-      <c r="I9">
+      <c r="I14">
         <v>500</v>
       </c>
-      <c r="J9">
+      <c r="J14">
         <v>250</v>
       </c>
-      <c r="K9">
+      <c r="K14">
         <v>-23303</v>
       </c>
-      <c r="L9">
+      <c r="L14">
         <v>6740</v>
       </c>
-      <c r="M9">
+      <c r="M14">
         <v>-800</v>
       </c>
-      <c r="N9">
+      <c r="N14">
         <v>-24103</v>
       </c>
-      <c r="O9">
+      <c r="O14">
         <v>0.2514836795252225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>0.4</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>450</v>
+      </c>
+      <c r="K15">
+        <v>-111456</v>
+      </c>
+      <c r="L15">
+        <v>9510</v>
+      </c>
+      <c r="M15">
+        <v>-1062</v>
+      </c>
+      <c r="N15">
+        <v>-112518</v>
+      </c>
+      <c r="O15">
+        <v>0.1991587802313354</v>
       </c>
     </row>
   </sheetData>
